--- a/biology/Zoologie/Adelpha_ethelda/Adelpha_ethelda.xlsx
+++ b/biology/Zoologie/Adelpha_ethelda/Adelpha_ethelda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha ethelda  est une espèce de papillons de la famille des Nymphalidae, sous famille des Limenitidinae et du genre Adelpha.
 </t>
@@ -511,47 +523,120 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha ethelda a été décrit par William Chapman Hewitson en 1867 sous le nom Heterochroa ethelda[1].
-Sous-espèces
-Adelpha ethelda ethelda
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha ethelda a été décrit par William Chapman Hewitson en 1867 sous le nom Heterochroa ethelda.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Adelpha_ethelda</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_ethelda</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adelpha ethelda ethelda
 Adelpha ethelda eponina Staudinger, 1886; en Colombie.
 Adelpha ethelda galbao Brévignon, 1995; en Guyane.
 Adelpha ethelda sophax Godman &amp; Salvin, 1878; au Costa Rica et à Panama
 Adelpha ethelda zalmona (Hewitson, 1871); au Costa Rica, à Panama et en Colombie.
-Adelpha ethelda ssp, au Mexique[1].
-Noms vernaculaires
-Adelpha ethelda se nomme en anglais Ethelda Sister[2].
+Adelpha ethelda ssp, au Mexique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Adelpha_ethelda</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_ethelda</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha ethelda se nomme en anglais Ethelda Sister.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Adelpha_ethelda</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Adelpha_ethelda</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Adelpha_ethelda</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_ethelda</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha ethelda  est un papillon  à bord externe des ailes antérieures concave. Le dessus est marron à marron foncé avec aux ailes antérieures une large bande jaune allant du milieu du bord costal à l'angle externe.
 Le revers est blanc, avec des veines et des bandes rouges à cuivrées, laissant une large bande blanche allant du milieu du bord costal à l'angle externe.
@@ -559,69 +644,146 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Adelpha_ethelda</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Adelpha_ethelda</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adelpha_ethelda</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_ethelda</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Sabicea aspera est une ou la plante hôte de sa chenille[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sabicea aspera est une ou la plante hôte de sa chenille.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Adelpha_ethelda</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Adelpha_ethelda</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adelpha_ethelda</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_ethelda</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha  ethelda est présent au Mexique, au Costa Rica, à Panama, en Équateur, en Colombie et en Guyane[1]. 
-Biotope
-Il réside dans la forêt humide[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha  ethelda est présent au Mexique, au Costa Rica, à Panama, en Équateur, en Colombie et en Guyane. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adelpha_ethelda</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_ethelda</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Adelpha_ethelda</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_ethelda</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
